--- a/output/logbook_2022-03-02.xlsx
+++ b/output/logbook_2022-03-02.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed Mahamoud\OneDrive - ACTED\4.Git\Data_Cleaning_Project\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/ahmed_mahamoud_reach-initiative_org/Documents/4.Git/Data_Cleaning_Project/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_70592A3FA211865CCCCE9523FA95CD6DAE047D84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F60A654-202E-4E71-BA3E-E3756E774779}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>uuid</t>
   </si>
@@ -76,13 +77,34 @@
   </si>
   <si>
     <t>ab642935-32a7-464c4d-949b99-da61b3ef90c8</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
+  </si>
+  <si>
+    <t>Puntland</t>
+  </si>
+  <si>
+    <t>Galmudug</t>
+  </si>
+  <si>
+    <t>Banadir</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>Jubaland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,13 +112,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE5859"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,15 +147,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEE5859"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,43 +451,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -467,8 +513,11 @@
       <c r="G2">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -490,8 +539,11 @@
       <c r="G3">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -513,8 +565,11 @@
       <c r="G4">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -536,8 +591,11 @@
       <c r="G5">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -559,8 +617,11 @@
       <c r="G6">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -582,8 +643,11 @@
       <c r="G7">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -605,8 +669,11 @@
       <c r="G8">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -627,6 +694,9 @@
       </c>
       <c r="G9">
         <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/output/logbook_2022-03-02.xlsx
+++ b/output/logbook_2022-03-02.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/ahmed_mahamoud_reach-initiative_org/Documents/4.Git/Data_Cleaning_Project/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed.mohamoud\Desktop\Data_Cleaning_Project\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_70592A3FA211865CCCCE9523FA95CD6DAE047D84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F60A654-202E-4E71-BA3E-E3756E774779}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92855A36-FD8D-4875-9DB4-A5BE158CB83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>uuid</t>
   </si>
@@ -79,25 +90,19 @@
     <t>ab642935-32a7-464c4d-949b99-da61b3ef90c8</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Somaliland</t>
-  </si>
-  <si>
-    <t>Puntland</t>
-  </si>
-  <si>
-    <t>Galmudug</t>
-  </si>
-  <si>
-    <t>Banadir</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>Jubaland</t>
+    <t>area_office</t>
+  </si>
+  <si>
+    <t>hargeisa</t>
+  </si>
+  <si>
+    <t>garowe</t>
+  </si>
+  <si>
+    <t>dolow</t>
+  </si>
+  <si>
+    <t>mogadishu</t>
   </si>
 </sst>
 </file>
@@ -130,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE5859"/>
+        <fgColor rgb="FF1A4262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,6 +164,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1A4262"/>
       <color rgb="FFEE5859"/>
     </mruColors>
   </colors>
@@ -455,17 +461,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,7 +497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -517,7 +523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -543,7 +549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -569,7 +575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -595,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -618,10 +624,10 @@
         <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -644,10 +650,10 @@
         <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -670,10 +676,10 @@
         <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -696,7 +702,7 @@
         <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
